--- a/test/TestProject1/template.xlsx
+++ b/test/TestProject1/template.xlsx
@@ -14,43 +14,41 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="19">
-  <si>
-    <t>檔案
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="22">
+  <si>
+    <t>檢驗檔案
 編號</t>
   </si>
   <si>
-    <t>日期</t>
-  </si>
-  <si>
-    <t>時間</t>
-  </si>
-  <si>
-    <t>记录
-編號</t>
-  </si>
-  <si>
-    <t>結果(合格/不合格)</t>
+    <t>檢驗日期</t>
+  </si>
+  <si>
+    <t>檢驗時間</t>
+  </si>
+  <si>
+    <t>車牌編號</t>
+  </si>
+  <si>
+    <t>檢驗結果(合格/不合格)</t>
   </si>
   <si>
     <t>數值
 (hsu)</t>
   </si>
   <si>
-    <t>燃油
-類別</t>
-  </si>
-  <si>
-    <t>車輛
-級別</t>
-  </si>
-  <si>
-    <t>檢測
-地點</t>
-  </si>
-  <si>
-    <t>車輛
-種類</t>
+    <t>燃油類別</t>
+  </si>
+  <si>
+    <t>車輛級別</t>
+  </si>
+  <si>
+    <t>檢測地點</t>
+  </si>
+  <si>
+    <t>車輛種類</t>
+  </si>
+  <si>
+    <t>車輛所有人(個人登記/公司登記)</t>
   </si>
   <si>
     <t>柴油</t>
@@ -104,24 +102,50 @@
     </r>
   </si>
   <si>
-    <t>{{Column1}}</t>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>{</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>{Column1}}</t>
+    </r>
   </si>
   <si>
     <t>{{Column2}}</t>
+  </si>
+  <si>
+    <t>{{Column3}}</t>
+  </si>
+  <si>
+    <t>{{Column4}}</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
-  <numFmts count="5">
+  <numFmts count="6">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="h:mm;@"/>
+    <numFmt numFmtId="177" formatCode="yyyy/m/d;@"/>
   </numFmts>
-  <fonts count="27">
+  <fonts count="28">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -154,6 +178,13 @@
       <color theme="1"/>
       <name val="標楷體"/>
       <charset val="136"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -514,7 +545,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="18">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -629,6 +660,21 @@
       <left style="thin">
         <color auto="1"/>
       </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
       <right style="thin">
         <color auto="1"/>
       </right>
@@ -640,10 +686,40 @@
       <left style="thin">
         <color auto="1"/>
       </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
       <right style="thin">
         <color auto="1"/>
       </right>
       <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
       <bottom style="medium">
         <color auto="1"/>
       </bottom>
@@ -752,155 +828,155 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -975,32 +1051,50 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="50">
@@ -1322,20 +1416,27 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:N5"/>
+  <dimension ref="A1:O5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection/>
+      <selection pane="bottomLeft" activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.18181818181818" defaultRowHeight="15.6" outlineLevelRow="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" outlineLevelRow="4"/>
   <cols>
-    <col min="1" max="2" width="8.18181818181818" customWidth="1"/>
-    <col min="3" max="3" width="12.2727272727273" style="1" customWidth="1"/>
-    <col min="4" max="14" width="8.18181818181818" customWidth="1"/>
+    <col min="1" max="2" width="10.7272727272727" customWidth="1"/>
+    <col min="3" max="3" width="12.6363636363636" style="1" customWidth="1"/>
+    <col min="4" max="4" width="10.2727272727273" customWidth="1"/>
+    <col min="5" max="10" width="10.7272727272727" customWidth="1"/>
+    <col min="11" max="12" width="14.9090909090909" customWidth="1"/>
+    <col min="13" max="13" width="22.7272727272727" customWidth="1"/>
+    <col min="14" max="14" width="13.7272727272727" customWidth="1"/>
+    <col min="15" max="15" width="14.3636363636364" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" ht="16.5" customHeight="1" spans="1:15">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1358,40 +1459,44 @@
       <c r="H1" s="8"/>
       <c r="I1" s="8"/>
       <c r="J1" s="8"/>
-      <c r="K1" s="24" t="s">
+      <c r="K1" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="L1" s="24" t="s">
+      <c r="L1" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="M1" s="25" t="s">
+      <c r="M1" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="N1" s="24" t="s">
+      <c r="N1" s="28" t="s">
         <v>9</v>
       </c>
+      <c r="O1" s="29" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="2" spans="1:14">
+    <row r="2" spans="1:15">
       <c r="A2" s="9"/>
       <c r="B2" s="10"/>
       <c r="C2" s="11"/>
       <c r="D2" s="12"/>
       <c r="E2" s="13"/>
       <c r="F2" s="14" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G2" s="15" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H2" s="15"/>
       <c r="I2" s="15"/>
       <c r="J2" s="15"/>
-      <c r="K2" s="26"/>
-      <c r="L2" s="26"/>
-      <c r="M2" s="27"/>
-      <c r="N2" s="28"/>
+      <c r="K2" s="30"/>
+      <c r="L2" s="30"/>
+      <c r="M2" s="31"/>
+      <c r="N2" s="32"/>
+      <c r="O2" s="33"/>
     </row>
-    <row r="3" spans="1:14">
+    <row r="3" spans="1:15">
       <c r="A3" s="9"/>
       <c r="B3" s="10"/>
       <c r="C3" s="11"/>
@@ -1399,54 +1504,62 @@
       <c r="E3" s="13"/>
       <c r="F3" s="16"/>
       <c r="G3" s="15" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H3" s="15"/>
       <c r="I3" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="J3" s="29"/>
-      <c r="K3" s="26"/>
-      <c r="L3" s="26"/>
-      <c r="M3" s="27"/>
-      <c r="N3" s="28"/>
+        <v>14</v>
+      </c>
+      <c r="J3" s="34"/>
+      <c r="K3" s="30"/>
+      <c r="L3" s="30"/>
+      <c r="M3" s="31"/>
+      <c r="N3" s="32"/>
+      <c r="O3" s="33"/>
     </row>
-    <row r="4" ht="16.35" spans="1:14">
+    <row r="4" spans="1:15">
       <c r="A4" s="17"/>
       <c r="B4" s="18"/>
       <c r="C4" s="19"/>
       <c r="D4" s="20"/>
       <c r="E4" s="21"/>
       <c r="F4" s="22" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G4" s="23" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H4" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="I4" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="I4" s="23" t="s">
-        <v>15</v>
-      </c>
       <c r="J4" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="K4" s="30"/>
-      <c r="L4" s="30"/>
-      <c r="M4" s="31"/>
-      <c r="N4" s="32"/>
+        <v>17</v>
+      </c>
+      <c r="K4" s="35"/>
+      <c r="L4" s="35"/>
+      <c r="M4" s="36"/>
+      <c r="N4" s="37"/>
+      <c r="O4" s="38"/>
     </row>
-    <row r="5" spans="3:5">
-      <c r="C5" t="s">
-        <v>17</v>
-      </c>
-      <c r="E5" t="s">
+    <row r="5" spans="3:13">
+      <c r="C5" s="24" t="s">
         <v>18</v>
+      </c>
+      <c r="G5" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="K5" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="M5" s="25" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="14">
+  <mergeCells count="15">
     <mergeCell ref="F1:J1"/>
     <mergeCell ref="G2:J2"/>
     <mergeCell ref="G3:H3"/>
@@ -1461,8 +1574,10 @@
     <mergeCell ref="L1:L4"/>
     <mergeCell ref="M1:M4"/>
     <mergeCell ref="N1:N4"/>
+    <mergeCell ref="O1:O4"/>
   </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.708661417322835" right="0.708661417322835" top="0.748031496062992" bottom="0.748031496062992" header="0.31496062992126" footer="0.31496062992126"/>
+  <pageSetup paperSize="9" scale="60" orientation="landscape"/>
   <headerFooter/>
 </worksheet>
 </file>